--- a/Blacksmiths SE.xlsx
+++ b/Blacksmiths SE.xlsx
@@ -8,12 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC551EA-E147-4935-B87D-1E6ABABE40B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50C156C-1B77-4B46-B347-3E9CFCBE1538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="2460" windowWidth="28800" windowHeight="15460" xr2:uid="{4F28731C-F042-4FD6-A4E5-8D041135DC46}"/>
+    <workbookView xWindow="23720" yWindow="3140" windowWidth="28800" windowHeight="15460" firstSheet="8" activeTab="11" xr2:uid="{4F28731C-F042-4FD6-A4E5-8D041135DC46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blacksmith Data Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic Light Armor Data Sheet" sheetId="4" r:id="rId2"/>
+    <sheet name="Iron Data Sheet" sheetId="21" r:id="rId3"/>
+    <sheet name="Steel Data Sheet" sheetId="2" r:id="rId4"/>
+    <sheet name="Dragonborn Data Sheet" sheetId="16" r:id="rId5"/>
+    <sheet name="Dwarven Data Sheet" sheetId="3" r:id="rId6"/>
+    <sheet name="Elven Data Sheet" sheetId="5" r:id="rId7"/>
+    <sheet name="Glass Data Sheet" sheetId="9" r:id="rId8"/>
+    <sheet name="Orcish Data Sheet" sheetId="8" r:id="rId9"/>
+    <sheet name="Ebony Data Sheet" sheetId="22" r:id="rId10"/>
+    <sheet name="Daedric Data Sheet" sheetId="6" r:id="rId11"/>
+    <sheet name="Dragon Data Sheet" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="325">
   <si>
     <t>Name</t>
   </si>
@@ -201,9 +212,6 @@
     <t>Speech Mastery</t>
   </si>
   <si>
-    <t>Baldor Iron-Shaper</t>
-  </si>
-  <si>
     <t>DLC2SVBaldorIronShaper</t>
   </si>
   <si>
@@ -222,9 +230,6 @@
     <t>DLC1Gunmar</t>
   </si>
   <si>
-    <t>Gunmar</t>
-  </si>
-  <si>
     <t>Fort Dawnguard</t>
   </si>
   <si>
@@ -247,15 +252,799 @@
   </si>
   <si>
     <t>100th Percentile</t>
+  </si>
+  <si>
+    <t>Smithing Perk</t>
+  </si>
+  <si>
+    <t>Mastery Required</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Arcane</t>
+  </si>
+  <si>
+    <t>Elven</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Dwarven</t>
+  </si>
+  <si>
+    <t>Orcish</t>
+  </si>
+  <si>
+    <t>Ebony</t>
+  </si>
+  <si>
+    <t>Daedric</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Adept</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Novice</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t>Bonemold</t>
+  </si>
+  <si>
+    <t>Chitin</t>
+  </si>
+  <si>
+    <t>Nordic</t>
+  </si>
+  <si>
+    <t>Stalhrim</t>
+  </si>
+  <si>
+    <t>Blacksmith Form</t>
+  </si>
+  <si>
+    <t>DLC2PerksSmithing</t>
+  </si>
+  <si>
+    <t>Base Cost</t>
+  </si>
+  <si>
+    <t>Chitin Armor</t>
+  </si>
+  <si>
+    <t>Chitin Boots</t>
+  </si>
+  <si>
+    <t>Chitin Helmet</t>
+  </si>
+  <si>
+    <t>Chitin Shield</t>
+  </si>
+  <si>
+    <t>Chitin Bracers</t>
+  </si>
+  <si>
+    <t>Chitin Heavy Armor</t>
+  </si>
+  <si>
+    <t>Chitin Heavy Boots</t>
+  </si>
+  <si>
+    <t>Chitin Heavy Helmet</t>
+  </si>
+  <si>
+    <t>Bonemold Armor</t>
+  </si>
+  <si>
+    <t>Bonemold Guard Armor</t>
+  </si>
+  <si>
+    <t>Bonemold Pauldron Armor</t>
+  </si>
+  <si>
+    <t>Bonemold Boots</t>
+  </si>
+  <si>
+    <t>Bonemold Gauntlets</t>
+  </si>
+  <si>
+    <t>Bonemold Helmet</t>
+  </si>
+  <si>
+    <t>Bonemold Shield</t>
+  </si>
+  <si>
+    <t>Nordic Carved Armor</t>
+  </si>
+  <si>
+    <t>Nordic Carved Boots</t>
+  </si>
+  <si>
+    <t>Nordic Carved Gauntlets</t>
+  </si>
+  <si>
+    <t>Nordic Carved Helmet</t>
+  </si>
+  <si>
+    <t>Nordic Shield</t>
+  </si>
+  <si>
+    <t>Stalhrim Armor</t>
+  </si>
+  <si>
+    <t>Stalhrim Boots</t>
+  </si>
+  <si>
+    <t>Stalhrim Gauntlets</t>
+  </si>
+  <si>
+    <t>Stalhrim Helm</t>
+  </si>
+  <si>
+    <t>Stalhrim Light Armor</t>
+  </si>
+  <si>
+    <t>Stalhrim Light Boots</t>
+  </si>
+  <si>
+    <t>Stalhrim Light Bracers</t>
+  </si>
+  <si>
+    <t>Stalhrim Light Helmet</t>
+  </si>
+  <si>
+    <t>Stalhrim Shield</t>
+  </si>
+  <si>
+    <t>Falmer</t>
+  </si>
+  <si>
+    <t>Knight-Paladin Gelebor</t>
+  </si>
+  <si>
+    <t>Steel Armor</t>
+  </si>
+  <si>
+    <t>Steel Cuffed Boots</t>
+  </si>
+  <si>
+    <t>Steel Shin Boots</t>
+  </si>
+  <si>
+    <t>Steel Helmet</t>
+  </si>
+  <si>
+    <t>Steel Horned Helmet</t>
+  </si>
+  <si>
+    <t>Steel Nordic Gauntlets</t>
+  </si>
+  <si>
+    <t>Steel Imperial Gauntlets</t>
+  </si>
+  <si>
+    <t>Steel Shield</t>
+  </si>
+  <si>
+    <t>Hide Armor</t>
+  </si>
+  <si>
+    <t>Hide Boots</t>
+  </si>
+  <si>
+    <t>Hide Bracers</t>
+  </si>
+  <si>
+    <t>Hide Helmet</t>
+  </si>
+  <si>
+    <t>Hide Shield</t>
+  </si>
+  <si>
+    <t>Leather Armor</t>
+  </si>
+  <si>
+    <t>Leather Boots</t>
+  </si>
+  <si>
+    <t>Leather Bracers</t>
+  </si>
+  <si>
+    <t>Leather Helmet</t>
+  </si>
+  <si>
+    <t>Dwarven Shield</t>
+  </si>
+  <si>
+    <t>Dwarven Helmet</t>
+  </si>
+  <si>
+    <t>Dwarven Gauntlets</t>
+  </si>
+  <si>
+    <t>Dwarven Boots</t>
+  </si>
+  <si>
+    <t>Dwarven Armor</t>
+  </si>
+  <si>
+    <t>Elven Armor</t>
+  </si>
+  <si>
+    <t>Elven Boots</t>
+  </si>
+  <si>
+    <t>Elven Gauntlets</t>
+  </si>
+  <si>
+    <t>Elven Helmet</t>
+  </si>
+  <si>
+    <t>Elven Shield</t>
+  </si>
+  <si>
+    <t>Elven Gilded Armor</t>
+  </si>
+  <si>
+    <t>Glass Armor</t>
+  </si>
+  <si>
+    <t>Glass Boots</t>
+  </si>
+  <si>
+    <t>Glass Gauntlets</t>
+  </si>
+  <si>
+    <t>Glass Helmet</t>
+  </si>
+  <si>
+    <t>Glass Shield</t>
+  </si>
+  <si>
+    <t>Orcish Armor</t>
+  </si>
+  <si>
+    <t>Orcish Boots</t>
+  </si>
+  <si>
+    <t>Orcish Gauntlets</t>
+  </si>
+  <si>
+    <t>Orcish Helmet</t>
+  </si>
+  <si>
+    <t>Orcish Shield</t>
+  </si>
+  <si>
+    <t>Dwarven Arrows (24)</t>
+  </si>
+  <si>
+    <t>Dwarven Battleaxe</t>
+  </si>
+  <si>
+    <t>Dwarven Bow</t>
+  </si>
+  <si>
+    <t>Dwarven Dagger</t>
+  </si>
+  <si>
+    <t>Dwarven Greatsword</t>
+  </si>
+  <si>
+    <t>Dwarven Mace</t>
+  </si>
+  <si>
+    <t>Dwarven Sword</t>
+  </si>
+  <si>
+    <t>Dwarven War Axe</t>
+  </si>
+  <si>
+    <t>Dwarven Warhammer</t>
+  </si>
+  <si>
+    <t>Orcish Arrows (24)</t>
+  </si>
+  <si>
+    <t>Orcish Dagger</t>
+  </si>
+  <si>
+    <t>Orcish Sword</t>
+  </si>
+  <si>
+    <t>Orcish Greatsword</t>
+  </si>
+  <si>
+    <t>Orcish War Axe</t>
+  </si>
+  <si>
+    <t>Orcish Battleaxe</t>
+  </si>
+  <si>
+    <t>Orcish Mace</t>
+  </si>
+  <si>
+    <t>Orcish Warhammer</t>
+  </si>
+  <si>
+    <t>Orcish Bow</t>
+  </si>
+  <si>
+    <t>Glass Arrows (24)</t>
+  </si>
+  <si>
+    <t>Glass Dagger</t>
+  </si>
+  <si>
+    <t>Glass Sword</t>
+  </si>
+  <si>
+    <t>Glass Greatsword</t>
+  </si>
+  <si>
+    <t>Glass War Axe</t>
+  </si>
+  <si>
+    <t>Glass Battleaxe</t>
+  </si>
+  <si>
+    <t>Glass Mace</t>
+  </si>
+  <si>
+    <t>Glass Warhammer</t>
+  </si>
+  <si>
+    <t>Glass Bow</t>
+  </si>
+  <si>
+    <t>Ebony Armor</t>
+  </si>
+  <si>
+    <t>Ebony Gauntlets</t>
+  </si>
+  <si>
+    <t>Ebony Shield</t>
+  </si>
+  <si>
+    <t>Ebony Helmet</t>
+  </si>
+  <si>
+    <t>Ebony Boots</t>
+  </si>
+  <si>
+    <t>Ebony Dagger</t>
+  </si>
+  <si>
+    <t>Ebony Sword</t>
+  </si>
+  <si>
+    <t>Ebony Greatsword</t>
+  </si>
+  <si>
+    <t>Ebony War Axe</t>
+  </si>
+  <si>
+    <t>Ebony Battleaxe</t>
+  </si>
+  <si>
+    <t>Ebony Mace</t>
+  </si>
+  <si>
+    <t>Ebony Warhammer</t>
+  </si>
+  <si>
+    <t>Ebony Arrow (24)</t>
+  </si>
+  <si>
+    <t>Ebony Bow</t>
+  </si>
+  <si>
+    <t>[1] Requires completing the quest "A New Order".</t>
+  </si>
+  <si>
+    <t>Elven Arrows (24)</t>
+  </si>
+  <si>
+    <t>Elven Dagger</t>
+  </si>
+  <si>
+    <t>Elven Sword</t>
+  </si>
+  <si>
+    <t>Elven Greatsword</t>
+  </si>
+  <si>
+    <t>Elven War Axe</t>
+  </si>
+  <si>
+    <t>Elven Battleaxe</t>
+  </si>
+  <si>
+    <t>Elven Mace</t>
+  </si>
+  <si>
+    <t>Elven Warhammer</t>
+  </si>
+  <si>
+    <t>Elven Bow</t>
+  </si>
+  <si>
+    <t>Iron Armor</t>
+  </si>
+  <si>
+    <t>Iron Boots</t>
+  </si>
+  <si>
+    <t>Iron Gauntlets</t>
+  </si>
+  <si>
+    <t>Iron Helmet</t>
+  </si>
+  <si>
+    <t>Iron Shield</t>
+  </si>
+  <si>
+    <t>Banded Iron Armor</t>
+  </si>
+  <si>
+    <t>Banded Iron Shield</t>
+  </si>
+  <si>
+    <t>Iron Arrow (24)</t>
+  </si>
+  <si>
+    <t>Iron Dagger</t>
+  </si>
+  <si>
+    <t>Iron Sword</t>
+  </si>
+  <si>
+    <t>Iron Greatsword</t>
+  </si>
+  <si>
+    <t>Iron War Axe</t>
+  </si>
+  <si>
+    <t>Iron Battleaxe</t>
+  </si>
+  <si>
+    <t>Iron Mace</t>
+  </si>
+  <si>
+    <t>Iron Warhammer</t>
+  </si>
+  <si>
+    <t>[2] Requires completing the quest "A New Source of Stalhrim".</t>
+  </si>
+  <si>
+    <t>Baldor Iron-Shaper [2]</t>
+  </si>
+  <si>
+    <t>Gunmar [1]</t>
+  </si>
+  <si>
+    <t>Labor Cost</t>
+  </si>
+  <si>
+    <t>Materials Cost</t>
+  </si>
+  <si>
+    <t>Raw Cost</t>
+  </si>
+  <si>
+    <t>Fur</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Leather Strips</t>
+  </si>
+  <si>
+    <t>Iron Ingot</t>
+  </si>
+  <si>
+    <t>Steel Ingot</t>
+  </si>
+  <si>
+    <t>Corundum Ingor</t>
+  </si>
+  <si>
+    <t>Dwarven Metal Ingot</t>
+  </si>
+  <si>
+    <t>Refined Moonstone</t>
+  </si>
+  <si>
+    <t>Refined Malachite</t>
+  </si>
+  <si>
+    <t>Orichalcum Ingot</t>
+  </si>
+  <si>
+    <t>Ebony Ingot</t>
+  </si>
+  <si>
+    <t>Daedra Heart</t>
+  </si>
+  <si>
+    <t>Netch Leather</t>
+  </si>
+  <si>
+    <t>Chitin Plate</t>
+  </si>
+  <si>
+    <t>Bone Meal</t>
+  </si>
+  <si>
+    <t>Dragon Bone</t>
+  </si>
+  <si>
+    <t>Dragon Scales</t>
+  </si>
+  <si>
+    <t>Quicksilver Ingot</t>
+  </si>
+  <si>
+    <t>Firewood</t>
+  </si>
+  <si>
+    <t>Chitin Heavy Gauntlets</t>
+  </si>
+  <si>
+    <t>Corundum Ingot</t>
+  </si>
+  <si>
+    <t>Netch Jelly</t>
+  </si>
+  <si>
+    <t>Scaled Helmet</t>
+  </si>
+  <si>
+    <t>Scaled Bracers</t>
+  </si>
+  <si>
+    <t>Scaled Boots</t>
+  </si>
+  <si>
+    <t>Scaled Armor</t>
+  </si>
+  <si>
+    <t>Steel Plate Armor</t>
+  </si>
+  <si>
+    <t>Steel Plate Boots</t>
+  </si>
+  <si>
+    <t>Steel Plate Gauntlets</t>
+  </si>
+  <si>
+    <t>Steel Plate Helmet</t>
+  </si>
+  <si>
+    <t>Improved Bonemold Boots</t>
+  </si>
+  <si>
+    <t>Improved Bonemold Armor</t>
+  </si>
+  <si>
+    <t>Improved Bonemold Gauntlets</t>
+  </si>
+  <si>
+    <t>Improved Bonemold Helmet</t>
+  </si>
+  <si>
+    <t>Improved Bonemold Shield</t>
+  </si>
+  <si>
+    <t>Void Salts</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Labor Cost of Category</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Gauntlets/Bracers</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>1H Weapons</t>
+  </si>
+  <si>
+    <t>2H Weapons</t>
+  </si>
+  <si>
+    <t>Ammo</t>
+  </si>
+  <si>
+    <t>Steel Arrow (24)</t>
+  </si>
+  <si>
+    <t>Steel Dagger</t>
+  </si>
+  <si>
+    <t>Steel Sword</t>
+  </si>
+  <si>
+    <t>Steel Greatsword</t>
+  </si>
+  <si>
+    <t>Steel War Axe</t>
+  </si>
+  <si>
+    <t>Steel Battleaxe</t>
+  </si>
+  <si>
+    <t>Steel Mace</t>
+  </si>
+  <si>
+    <t>Steel Warhammer</t>
+  </si>
+  <si>
+    <t>Daedric Armor</t>
+  </si>
+  <si>
+    <t>Daedric Boots</t>
+  </si>
+  <si>
+    <t>Daedric Gauntlets</t>
+  </si>
+  <si>
+    <t>Daedric Helmet</t>
+  </si>
+  <si>
+    <t>Daedric Shield</t>
+  </si>
+  <si>
+    <t>Daedric Dagger</t>
+  </si>
+  <si>
+    <t>Daedric Sword</t>
+  </si>
+  <si>
+    <t>Daedric Battleaxe</t>
+  </si>
+  <si>
+    <t>Daedric Bow</t>
+  </si>
+  <si>
+    <t>Daedric Greatsword</t>
+  </si>
+  <si>
+    <t>Daedric War Axe</t>
+  </si>
+  <si>
+    <t>Daedric Mace</t>
+  </si>
+  <si>
+    <t>Daedric Warhammer</t>
+  </si>
+  <si>
+    <t>Daedric Arrow (24)</t>
+  </si>
+  <si>
+    <t>Dragonplate Armor</t>
+  </si>
+  <si>
+    <t>Dragonplate Boots</t>
+  </si>
+  <si>
+    <t>Dragonplate Gauntlets</t>
+  </si>
+  <si>
+    <t>Dragonplate Helmet</t>
+  </si>
+  <si>
+    <t>Dragonplate Shield</t>
+  </si>
+  <si>
+    <t>Dragonscale Armor</t>
+  </si>
+  <si>
+    <t>Dragonscale Boots</t>
+  </si>
+  <si>
+    <t>Dragonscale Gauntlets</t>
+  </si>
+  <si>
+    <t>Dragonscale Helmet</t>
+  </si>
+  <si>
+    <t>Dragonscale Shield</t>
+  </si>
+  <si>
+    <t>Dragonbone Battleaxe</t>
+  </si>
+  <si>
+    <t>Dragonbone Bow</t>
+  </si>
+  <si>
+    <t>Dragonbone Dagger</t>
+  </si>
+  <si>
+    <t>Dragonbone Greatsword</t>
+  </si>
+  <si>
+    <t>Dragonbone Mace</t>
+  </si>
+  <si>
+    <t>Dragonbone Sword</t>
+  </si>
+  <si>
+    <t>Dragonbone War Axe</t>
+  </si>
+  <si>
+    <t>Dragonbone Warhammer</t>
+  </si>
+  <si>
+    <t>Dragonbone Arrows (24)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -282,8 +1071,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,53 +1392,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAC772A-8124-4131-8FCE-60D15DABF71E}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -661,23 +1465,29 @@
         <v>26</v>
       </c>
       <c r="F2">
-        <f>(D2-$D$25)/($D$26-$D$25)</f>
+        <f t="shared" ref="F2:F24" si="0">(D2-$D$25)/($D$26-$D$25)</f>
         <v>0.40384615384615385</v>
       </c>
       <c r="G2">
-        <f>(E2-$E$25)/($E$26-$E$25)</f>
+        <f t="shared" ref="G2:G24" si="1">(E2-$E$25)/($E$26-$E$25)</f>
         <v>0.48837209302325579</v>
       </c>
       <c r="H2" t="str">
-        <f>IF(D2&lt;=$D$27,"Novice",IF(AND(D2&gt;$D$27,D2&lt;=$D$28),"Apprentice",IF(AND(D2&gt;$D$28,D2&lt;=$D$29),"Adept",IF(AND(D2&gt;$D$29,D2&lt;$D$30),"Expert","Master"))))</f>
+        <f t="shared" ref="H2:H24" si="2">IF(D2&lt;=$D$27,"Novice",IF(AND(D2&gt;$D$27,D2&lt;=$D$28),"Apprentice",IF(AND(D2&gt;$D$28,D2&lt;=$D$29),"Adept",IF(AND(D2&gt;$D$29,D2&lt;$D$30),"Expert","Master"))))</f>
         <v>Apprentice</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(E2&lt;=$E$27,"Novice",IF(AND(E2&gt;$E$27,E2&lt;=$E$28),"Apprentice",IF(AND(E2&gt;$E$28,E2&lt;=$E$29),"Adept",IF(AND(E2&gt;$E$29,E2&lt;$E$30),"Expert","Master"))))</f>
+        <f t="shared" ref="I2:I24" si="3">IF(E2&lt;=$E$27,"Novice",IF(AND(E2&gt;$E$27,E2&lt;=$E$28),"Apprentice",IF(AND(E2&gt;$E$28,E2&lt;=$E$29),"Adept",IF(AND(E2&gt;$E$29,E2&lt;$E$30),"Expert","Master"))))</f>
         <v>Apprentice</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -694,23 +1504,29 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <f>(D3-$D$25)/($D$26-$D$25)</f>
+        <f t="shared" si="0"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="G3">
-        <f>(E3-$E$25)/($E$26-$E$25)</f>
+        <f t="shared" si="1"/>
         <v>0.81395348837209303</v>
       </c>
       <c r="H3" t="str">
-        <f>IF(D3&lt;=$D$27,"Novice",IF(AND(D3&gt;$D$27,D3&lt;=$D$28),"Apprentice",IF(AND(D3&gt;$D$28,D3&lt;=$D$29),"Adept",IF(AND(D3&gt;$D$29,D3&lt;$D$30),"Expert","Master"))))</f>
+        <f t="shared" si="2"/>
         <v>Expert</v>
       </c>
       <c r="I3" t="str">
-        <f>IF(E3&lt;=$E$27,"Novice",IF(AND(E3&gt;$E$27,E3&lt;=$E$28),"Apprentice",IF(AND(E3&gt;$E$28,E3&lt;=$E$29),"Adept",IF(AND(E3&gt;$E$29,E3&lt;$E$30),"Expert","Master"))))</f>
+        <f t="shared" si="3"/>
         <v>Expert</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -727,23 +1543,29 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <f>(D4-$D$25)/($D$26-$D$25)</f>
+        <f t="shared" si="0"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="G4">
-        <f>(E4-$E$25)/($E$26-$E$25)</f>
+        <f t="shared" si="1"/>
         <v>0.81395348837209303</v>
       </c>
       <c r="H4" t="str">
-        <f>IF(D4&lt;=$D$27,"Novice",IF(AND(D4&gt;$D$27,D4&lt;=$D$28),"Apprentice",IF(AND(D4&gt;$D$28,D4&lt;=$D$29),"Adept",IF(AND(D4&gt;$D$29,D4&lt;$D$30),"Expert","Master"))))</f>
+        <f t="shared" si="2"/>
         <v>Expert</v>
       </c>
       <c r="I4" t="str">
-        <f>IF(E4&lt;=$E$27,"Novice",IF(AND(E4&gt;$E$27,E4&lt;=$E$28),"Apprentice",IF(AND(E4&gt;$E$28,E4&lt;=$E$29),"Adept",IF(AND(E4&gt;$E$29,E4&lt;$E$30),"Expert","Master"))))</f>
+        <f t="shared" si="3"/>
         <v>Expert</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -760,23 +1582,29 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <f>(D5-$D$25)/($D$26-$D$25)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G5">
-        <f>(E5-$E$25)/($E$26-$E$25)</f>
+        <f t="shared" si="1"/>
         <v>0.60465116279069764</v>
       </c>
       <c r="H5" t="str">
-        <f>IF(D5&lt;=$D$27,"Novice",IF(AND(D5&gt;$D$27,D5&lt;=$D$28),"Apprentice",IF(AND(D5&gt;$D$28,D5&lt;=$D$29),"Adept",IF(AND(D5&gt;$D$29,D5&lt;$D$30),"Expert","Master"))))</f>
+        <f t="shared" si="2"/>
         <v>Adept</v>
       </c>
       <c r="I5" t="str">
-        <f>IF(E5&lt;=$E$27,"Novice",IF(AND(E5&gt;$E$27,E5&lt;=$E$28),"Apprentice",IF(AND(E5&gt;$E$28,E5&lt;=$E$29),"Adept",IF(AND(E5&gt;$E$29,E5&lt;$E$30),"Expert","Master"))))</f>
+        <f t="shared" si="3"/>
         <v>Adept</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -793,23 +1621,29 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <f>(D6-$D$25)/($D$26-$D$25)</f>
+        <f t="shared" si="0"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="G6">
-        <f>(E6-$E$25)/($E$26-$E$25)</f>
+        <f t="shared" si="1"/>
         <v>0.72093023255813948</v>
       </c>
       <c r="H6" t="str">
-        <f>IF(D6&lt;=$D$27,"Novice",IF(AND(D6&gt;$D$27,D6&lt;=$D$28),"Apprentice",IF(AND(D6&gt;$D$28,D6&lt;=$D$29),"Adept",IF(AND(D6&gt;$D$29,D6&lt;$D$30),"Expert","Master"))))</f>
+        <f t="shared" si="2"/>
         <v>Adept</v>
       </c>
       <c r="I6" t="str">
-        <f>IF(E6&lt;=$E$27,"Novice",IF(AND(E6&gt;$E$27,E6&lt;=$E$28),"Apprentice",IF(AND(E6&gt;$E$28,E6&lt;=$E$29),"Adept",IF(AND(E6&gt;$E$29,E6&lt;$E$30),"Expert","Master"))))</f>
+        <f t="shared" si="3"/>
         <v>Adept</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -826,584 +1660,671 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <f>(D7-$D$25)/($D$26-$D$25)</f>
+        <f t="shared" si="0"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="G7">
-        <f>(E7-$E$25)/($E$26-$E$25)</f>
+        <f t="shared" si="1"/>
         <v>0.7441860465116279</v>
       </c>
       <c r="H7" t="str">
-        <f>IF(D7&lt;=$D$27,"Novice",IF(AND(D7&gt;$D$27,D7&lt;=$D$28),"Apprentice",IF(AND(D7&gt;$D$28,D7&lt;=$D$29),"Adept",IF(AND(D7&gt;$D$29,D7&lt;$D$30),"Expert","Master"))))</f>
+        <f t="shared" si="2"/>
         <v>Adept</v>
       </c>
       <c r="I7" t="str">
-        <f>IF(E7&lt;=$E$27,"Novice",IF(AND(E7&gt;$E$27,E7&lt;=$E$28),"Apprentice",IF(AND(E7&gt;$E$28,E7&lt;=$E$29),"Adept",IF(AND(E7&gt;$E$29,E7&lt;$E$30),"Expert","Master"))))</f>
+        <f t="shared" si="3"/>
         <v>Adept</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>Master</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>Master</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.28846153846153844</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>Apprentice</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>Novice</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <f>(D8-$D$25)/($D$26-$D$25)</f>
-        <v>0.28846153846153844</v>
-      </c>
-      <c r="G8">
-        <f>(E8-$E$25)/($E$26-$E$25)</f>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="H8" t="str">
-        <f>IF(D8&lt;=$D$27,"Novice",IF(AND(D8&gt;$D$27,D8&lt;=$D$28),"Apprentice",IF(AND(D8&gt;$D$28,D8&lt;=$D$29),"Adept",IF(AND(D8&gt;$D$29,D8&lt;$D$30),"Expert","Master"))))</f>
-        <v>Apprentice</v>
-      </c>
-      <c r="I8" t="str">
-        <f>IF(E8&lt;=$E$27,"Novice",IF(AND(E8&gt;$E$27,E8&lt;=$E$28),"Apprentice",IF(AND(E8&gt;$E$28,E8&lt;=$E$29),"Adept",IF(AND(E8&gt;$E$29,E8&lt;$E$30),"Expert","Master"))))</f>
-        <v>Novice</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <f>(D9-$D$25)/($D$26-$D$25)</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="G9">
-        <f>(E9-$E$25)/($E$26-$E$25)</f>
-        <v>0.44186046511627908</v>
-      </c>
-      <c r="H9" t="str">
-        <f>IF(D9&lt;=$D$27,"Novice",IF(AND(D9&gt;$D$27,D9&lt;=$D$28),"Apprentice",IF(AND(D9&gt;$D$28,D9&lt;=$D$29),"Adept",IF(AND(D9&gt;$D$29,D9&lt;$D$30),"Expert","Master"))))</f>
-        <v>Apprentice</v>
-      </c>
-      <c r="I9" t="str">
-        <f>IF(E9&lt;=$E$27,"Novice",IF(AND(E9&gt;$E$27,E9&lt;=$E$28),"Apprentice",IF(AND(E9&gt;$E$28,E9&lt;=$E$29),"Adept",IF(AND(E9&gt;$E$29,E9&lt;$E$30),"Expert","Master"))))</f>
-        <v>Apprentice</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>38</v>
-      </c>
       <c r="F10">
-        <f>(D10-$D$25)/($D$26-$D$25)</f>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0.19230769230769232</v>
       </c>
       <c r="G10">
-        <f>(E10-$E$25)/($E$26-$E$25)</f>
-        <v>0.76744186046511631</v>
+        <f t="shared" si="1"/>
+        <v>0.34883720930232559</v>
       </c>
       <c r="H10" t="str">
         <f>IF(D10&lt;=$D$27,"Novice",IF(AND(D10&gt;$D$27,D10&lt;=$D$28),"Apprentice",IF(AND(D10&gt;$D$28,D10&lt;=$D$29),"Adept",IF(AND(D10&gt;$D$29,D10&lt;$D$30),"Expert","Master"))))</f>
+        <v>Novice</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>Apprentice</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>Novice</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>Novice</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.28846153846153844</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>Apprentice</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>Novice</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.44186046511627908</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>Apprentice</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>Apprentice</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.76744186046511631</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
         <v>Expert</v>
       </c>
-      <c r="I10" t="str">
-        <f>IF(E10&lt;=$E$27,"Novice",IF(AND(E10&gt;$E$27,E10&lt;=$E$28),"Apprentice",IF(AND(E10&gt;$E$28,E10&lt;=$E$29),"Adept",IF(AND(E10&gt;$E$29,E10&lt;$E$30),"Expert","Master"))))</f>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
         <v>Expert</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>26</v>
-      </c>
-      <c r="F11">
-        <f>(D11-$D$25)/($D$26-$D$25)</f>
-        <v>0.42307692307692307</v>
-      </c>
-      <c r="G11">
-        <f>(E11-$E$25)/($E$26-$E$25)</f>
-        <v>0.48837209302325579</v>
-      </c>
-      <c r="H11" t="str">
-        <f>IF(D11&lt;=$D$27,"Novice",IF(AND(D11&gt;$D$27,D11&lt;=$D$28),"Apprentice",IF(AND(D11&gt;$D$28,D11&lt;=$D$29),"Adept",IF(AND(D11&gt;$D$29,D11&lt;$D$30),"Expert","Master"))))</f>
-        <v>Apprentice</v>
-      </c>
-      <c r="I11" t="str">
-        <f>IF(E11&lt;=$E$27,"Novice",IF(AND(E11&gt;$E$27,E11&lt;=$E$28),"Apprentice",IF(AND(E11&gt;$E$28,E11&lt;=$E$29),"Adept",IF(AND(E11&gt;$E$29,E11&lt;$E$30),"Expert","Master"))))</f>
-        <v>Apprentice</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <f>(D12-$D$25)/($D$26-$D$25)</f>
-        <v>0.57692307692307687</v>
-      </c>
-      <c r="G12">
-        <f>(E12-$E$25)/($E$26-$E$25)</f>
-        <v>0.72093023255813948</v>
-      </c>
-      <c r="H12" t="str">
-        <f>IF(D12&lt;=$D$27,"Novice",IF(AND(D12&gt;$D$27,D12&lt;=$D$28),"Apprentice",IF(AND(D12&gt;$D$28,D12&lt;=$D$29),"Adept",IF(AND(D12&gt;$D$29,D12&lt;$D$30),"Expert","Master"))))</f>
-        <v>Adept</v>
-      </c>
-      <c r="I12" t="str">
-        <f>IF(E12&lt;=$E$27,"Novice",IF(AND(E12&gt;$E$27,E12&lt;=$E$28),"Apprentice",IF(AND(E12&gt;$E$28,E12&lt;=$E$29),"Adept",IF(AND(E12&gt;$E$29,E12&lt;$E$30),"Expert","Master"))))</f>
-        <v>Adept</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <f>(D13-$D$25)/($D$26-$D$25)</f>
-        <v>0.28846153846153844</v>
-      </c>
-      <c r="G13">
-        <f>(E13-$E$25)/($E$26-$E$25)</f>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="H13" t="str">
-        <f>IF(D13&lt;=$D$27,"Novice",IF(AND(D13&gt;$D$27,D13&lt;=$D$28),"Apprentice",IF(AND(D13&gt;$D$28,D13&lt;=$D$29),"Adept",IF(AND(D13&gt;$D$29,D13&lt;$D$30),"Expert","Master"))))</f>
-        <v>Apprentice</v>
-      </c>
-      <c r="I13" t="str">
-        <f>IF(E13&lt;=$E$27,"Novice",IF(AND(E13&gt;$E$27,E13&lt;=$E$28),"Apprentice",IF(AND(E13&gt;$E$28,E13&lt;=$E$29),"Adept",IF(AND(E13&gt;$E$29,E13&lt;$E$30),"Expert","Master"))))</f>
-        <v>Novice</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <f>(D14-$D$25)/($D$26-$D$25)</f>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>(E14-$E$25)/($E$26-$E$25)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" t="str">
-        <f>IF(D14&lt;=$D$27,"Novice",IF(AND(D14&gt;$D$27,D14&lt;=$D$28),"Apprentice",IF(AND(D14&gt;$D$28,D14&lt;=$D$29),"Adept",IF(AND(D14&gt;$D$29,D14&lt;$D$30),"Expert","Master"))))</f>
-        <v>Novice</v>
-      </c>
-      <c r="I14" t="str">
-        <f>IF(E14&lt;=$E$27,"Novice",IF(AND(E14&gt;$E$27,E14&lt;=$E$28),"Apprentice",IF(AND(E14&gt;$E$28,E14&lt;=$E$29),"Adept",IF(AND(E14&gt;$E$29,E14&lt;$E$30),"Expert","Master"))))</f>
-        <v>Novice</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
       </c>
       <c r="D15">
         <v>27</v>
       </c>
       <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.48837209302325579</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>Apprentice</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>Apprentice</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.72093023255813948</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>Adept</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>Adept</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.28846153846153844</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>Apprentice</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>Novice</v>
+      </c>
+      <c r="J17" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>Novice</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>Novice</v>
+      </c>
+      <c r="J18" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
         <v>27</v>
       </c>
-      <c r="F15">
-        <f>(D15-$D$25)/($D$26-$D$25)</f>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
         <v>0.42307692307692307</v>
       </c>
-      <c r="G15">
-        <f>(E15-$E$25)/($E$26-$E$25)</f>
+      <c r="G19">
+        <f t="shared" si="1"/>
         <v>0.51162790697674421</v>
       </c>
-      <c r="H15" t="str">
-        <f>IF(D15&lt;=$D$27,"Novice",IF(AND(D15&gt;$D$27,D15&lt;=$D$28),"Apprentice",IF(AND(D15&gt;$D$28,D15&lt;=$D$29),"Adept",IF(AND(D15&gt;$D$29,D15&lt;$D$30),"Expert","Master"))))</f>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
         <v>Apprentice</v>
       </c>
-      <c r="I15" t="str">
-        <f>IF(E15&lt;=$E$27,"Novice",IF(AND(E15&gt;$E$27,E15&lt;=$E$28),"Apprentice",IF(AND(E15&gt;$E$28,E15&lt;=$E$29),"Adept",IF(AND(E15&gt;$E$29,E15&lt;$E$30),"Expert","Master"))))</f>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
         <v>Apprentice</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="J19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="F16">
-        <f>(D16-$D$25)/($D$26-$D$25)</f>
+      <c r="F20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16">
-        <f>(E16-$E$25)/($E$26-$E$25)</f>
+      <c r="G20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" t="str">
-        <f>IF(D16&lt;=$D$27,"Novice",IF(AND(D16&gt;$D$27,D16&lt;=$D$28),"Apprentice",IF(AND(D16&gt;$D$28,D16&lt;=$D$29),"Adept",IF(AND(D16&gt;$D$29,D16&lt;$D$30),"Expert","Master"))))</f>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
         <v>Novice</v>
       </c>
-      <c r="I16" t="str">
-        <f>IF(E16&lt;=$E$27,"Novice",IF(AND(E16&gt;$E$27,E16&lt;=$E$28),"Apprentice",IF(AND(E16&gt;$E$28,E16&lt;=$E$29),"Adept",IF(AND(E16&gt;$E$29,E16&lt;$E$30),"Expert","Master"))))</f>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
         <v>Novice</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="J20" t="s">
+        <v>237</v>
+      </c>
+      <c r="K20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>27</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>27</v>
       </c>
-      <c r="F17">
-        <f>(D17-$D$25)/($D$26-$D$25)</f>
+      <c r="F21">
+        <f t="shared" si="0"/>
         <v>0.42307692307692307</v>
       </c>
-      <c r="G17">
-        <f>(E17-$E$25)/($E$26-$E$25)</f>
+      <c r="G21">
+        <f t="shared" si="1"/>
         <v>0.51162790697674421</v>
       </c>
-      <c r="H17" t="str">
-        <f>IF(D17&lt;=$D$27,"Novice",IF(AND(D17&gt;$D$27,D17&lt;=$D$28),"Apprentice",IF(AND(D17&gt;$D$28,D17&lt;=$D$29),"Adept",IF(AND(D17&gt;$D$29,D17&lt;$D$30),"Expert","Master"))))</f>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
         <v>Apprentice</v>
       </c>
-      <c r="I17" t="str">
-        <f>IF(E17&lt;=$E$27,"Novice",IF(AND(E17&gt;$E$27,E17&lt;=$E$28),"Apprentice",IF(AND(E17&gt;$E$28,E17&lt;=$E$29),"Adept",IF(AND(E17&gt;$E$29,E17&lt;$E$30),"Expert","Master"))))</f>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
         <v>Apprentice</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>31</v>
       </c>
-      <c r="E18">
+      <c r="E22">
         <v>31</v>
       </c>
-      <c r="F18">
-        <f>(D18-$D$25)/($D$26-$D$25)</f>
+      <c r="F22">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G18">
-        <f>(E18-$E$25)/($E$26-$E$25)</f>
+      <c r="G22">
+        <f t="shared" si="1"/>
         <v>0.60465116279069764</v>
       </c>
-      <c r="H18" t="str">
-        <f>IF(D18&lt;=$D$27,"Novice",IF(AND(D18&gt;$D$27,D18&lt;=$D$28),"Apprentice",IF(AND(D18&gt;$D$28,D18&lt;=$D$29),"Adept",IF(AND(D18&gt;$D$29,D18&lt;$D$30),"Expert","Master"))))</f>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
         <v>Adept</v>
       </c>
-      <c r="I18" t="str">
-        <f>IF(E18&lt;=$E$27,"Novice",IF(AND(E18&gt;$E$27,E18&lt;=$E$28),"Apprentice",IF(AND(E18&gt;$E$28,E18&lt;=$E$29),"Adept",IF(AND(E18&gt;$E$29,E18&lt;$E$30),"Expert","Master"))))</f>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
         <v>Adept</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>31</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>26</v>
       </c>
-      <c r="F19">
-        <f>(D19-$D$25)/($D$26-$D$25)</f>
+      <c r="F23">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G19">
-        <f>(E19-$E$25)/($E$26-$E$25)</f>
+      <c r="G23">
+        <f t="shared" si="1"/>
         <v>0.48837209302325579</v>
       </c>
-      <c r="H19" t="str">
-        <f>IF(D19&lt;=$D$27,"Novice",IF(AND(D19&gt;$D$27,D19&lt;=$D$28),"Apprentice",IF(AND(D19&gt;$D$28,D19&lt;=$D$29),"Adept",IF(AND(D19&gt;$D$29,D19&lt;$D$30),"Expert","Master"))))</f>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
         <v>Adept</v>
       </c>
-      <c r="I19" t="str">
-        <f>IF(E19&lt;=$E$27,"Novice",IF(AND(E19&gt;$E$27,E19&lt;=$E$28),"Apprentice",IF(AND(E19&gt;$E$28,E19&lt;=$E$29),"Adept",IF(AND(E19&gt;$E$29,E19&lt;$E$30),"Expert","Master"))))</f>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
         <v>Apprentice</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>27</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>27</v>
       </c>
-      <c r="F20">
-        <f>(D20-$D$25)/($D$26-$D$25)</f>
+      <c r="F24">
+        <f t="shared" si="0"/>
         <v>0.42307692307692307</v>
       </c>
-      <c r="G20">
-        <f>(E20-$E$25)/($E$26-$E$25)</f>
+      <c r="G24">
+        <f t="shared" si="1"/>
         <v>0.51162790697674421</v>
       </c>
-      <c r="H20" t="str">
-        <f>IF(D20&lt;=$D$27,"Novice",IF(AND(D20&gt;$D$27,D20&lt;=$D$28),"Apprentice",IF(AND(D20&gt;$D$28,D20&lt;=$D$29),"Adept",IF(AND(D20&gt;$D$29,D20&lt;$D$30),"Expert","Master"))))</f>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
         <v>Apprentice</v>
       </c>
-      <c r="I20" t="str">
-        <f>IF(E20&lt;=$E$27,"Novice",IF(AND(E20&gt;$E$27,E20&lt;=$E$28),"Apprentice",IF(AND(E20&gt;$E$28,E20&lt;=$E$29),"Adept",IF(AND(E20&gt;$E$29,E20&lt;$E$30),"Expert","Master"))))</f>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
         <v>Apprentice</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <f>(D21-$D$25)/($D$26-$D$25)</f>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f>(E21-$E$25)/($E$26-$E$25)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" t="str">
-        <f>IF(D21&lt;=$D$27,"Novice",IF(AND(D21&gt;$D$27,D21&lt;=$D$28),"Apprentice",IF(AND(D21&gt;$D$28,D21&lt;=$D$29),"Adept",IF(AND(D21&gt;$D$29,D21&lt;$D$30),"Expert","Master"))))</f>
-        <v>Novice</v>
-      </c>
-      <c r="I21" t="str">
-        <f>IF(E21&lt;=$E$27,"Novice",IF(AND(E21&gt;$E$27,E21&lt;=$E$28),"Apprentice",IF(AND(E21&gt;$E$28,E21&lt;=$E$29),"Adept",IF(AND(E21&gt;$E$29,E21&lt;$E$30),"Expert","Master"))))</f>
-        <v>Novice</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <f>(D22-$D$25)/($D$26-$D$25)</f>
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="G22">
-        <f>(E22-$E$25)/($E$26-$E$25)</f>
-        <v>0.34883720930232559</v>
-      </c>
-      <c r="H22" t="str">
-        <f>IF(D22&lt;=$D$27,"Novice",IF(AND(D22&gt;$D$27,D22&lt;=$D$28),"Apprentice",IF(AND(D22&gt;$D$28,D22&lt;=$D$29),"Adept",IF(AND(D22&gt;$D$29,D22&lt;$D$30),"Expert","Master"))))</f>
-        <v>Novice</v>
-      </c>
-      <c r="I22" t="str">
-        <f>IF(E22&lt;=$E$27,"Novice",IF(AND(E22&gt;$E$27,E22&lt;=$E$28),"Apprentice",IF(AND(E22&gt;$E$28,E22&lt;=$E$29),"Adept",IF(AND(E22&gt;$E$29,E22&lt;$E$30),"Expert","Master"))))</f>
-        <v>Apprentice</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23">
-        <v>57</v>
-      </c>
-      <c r="E23">
-        <v>48</v>
-      </c>
-      <c r="F23">
-        <f>(D23-$D$25)/($D$26-$D$25)</f>
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <f>(E23-$E$25)/($E$26-$E$25)</f>
-        <v>1</v>
-      </c>
-      <c r="H23" t="str">
-        <f>IF(D23&lt;=$D$27,"Novice",IF(AND(D23&gt;$D$27,D23&lt;=$D$28),"Apprentice",IF(AND(D23&gt;$D$28,D23&lt;=$D$29),"Adept",IF(AND(D23&gt;$D$29,D23&lt;$D$30),"Expert","Master"))))</f>
-        <v>Master</v>
-      </c>
-      <c r="I23" t="str">
-        <f>IF(E23&lt;=$E$27,"Novice",IF(AND(E23&gt;$E$27,E23&lt;=$E$28),"Apprentice",IF(AND(E23&gt;$E$28,E23&lt;=$E$29),"Adept",IF(AND(E23&gt;$E$29,E23&lt;$E$30),"Expert","Master"))))</f>
-        <v>Master</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <f>(D24-$D$25)/($D$26-$D$25)</f>
-        <v>0.28846153846153844</v>
-      </c>
-      <c r="G24">
-        <f>(E24-$E$25)/($E$26-$E$25)</f>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="H24" t="str">
-        <f>IF(D24&lt;=$D$27,"Novice",IF(AND(D24&gt;$D$27,D24&lt;=$D$28),"Apprentice",IF(AND(D24&gt;$D$28,D24&lt;=$D$29),"Adept",IF(AND(D24&gt;$D$29,D24&lt;$D$30),"Expert","Master"))))</f>
-        <v>Apprentice</v>
-      </c>
-      <c r="I24" t="str">
-        <f>IF(E24&lt;=$E$27,"Novice",IF(AND(E24&gt;$E$27,E24&lt;=$E$28),"Apprentice",IF(AND(E24&gt;$E$28,E24&lt;=$E$29),"Adept",IF(AND(E24&gt;$E$29,E24&lt;$E$30),"Expert","Master"))))</f>
-        <v>Novice</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
       <c r="C25" t="s">
         <v>49</v>
       </c>
@@ -1416,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>50</v>
       </c>
@@ -1429,9 +2350,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <f>_xlfn.PERCENTILE.INC($D$2:$D$24, 0.15)</f>
@@ -1442,9 +2363,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <f>_xlfn.PERCENTILE.INC($D$2:$D$24, 0.5)</f>
@@ -1455,9 +2376,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29">
         <f>_xlfn.PERCENTILE.INC($D$2:$D$24, 0.85)</f>
@@ -1468,9 +2389,9 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <f>_xlfn.PERCENTILE.INC($D$2:$D$24, 1)</f>
@@ -1479,6 +2400,6444 @@
       <c r="E30">
         <f>_xlfn.PERCENTILE.INC($E$2:$E$24, 1)</f>
         <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K15">
+    <sortCondition ref="J2:J15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7FED38-4A4C-4D31-BB09-AB543F74B9E7}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2">
+        <v>1500</v>
+      </c>
+      <c r="C2">
+        <v>759</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>2509</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3">
+        <v>275</v>
+      </c>
+      <c r="C3">
+        <v>456</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">SUM(B3:D3)</f>
+        <v>781</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4">
+        <v>275</v>
+      </c>
+      <c r="C4">
+        <v>306</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>631</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5">
+        <v>750</v>
+      </c>
+      <c r="C5">
+        <v>456</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1306</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6">
+        <v>750</v>
+      </c>
+      <c r="C6">
+        <v>603</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1503</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7">
+        <v>290</v>
+      </c>
+      <c r="C7">
+        <v>153</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>593</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8">
+        <v>720</v>
+      </c>
+      <c r="C8">
+        <v>303</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1173</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9">
+        <v>1440</v>
+      </c>
+      <c r="C9">
+        <v>759</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2399</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10">
+        <v>865</v>
+      </c>
+      <c r="C10">
+        <v>306</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11">
+        <v>1585</v>
+      </c>
+      <c r="C11">
+        <v>756</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>453</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13">
+        <v>1725</v>
+      </c>
+      <c r="C13">
+        <v>759</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14">
+        <v>1440</v>
+      </c>
+      <c r="C14">
+        <v>450</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15">
+        <v>168</v>
+      </c>
+      <c r="C15">
+        <v>155</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410B7CAE-69B0-48AB-B811-8DDE955474E3}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2">
+        <v>3200</v>
+      </c>
+      <c r="C2">
+        <v>1009</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>4459</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3">
+        <v>625</v>
+      </c>
+      <c r="C3">
+        <v>706</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">SUM(B3:D3)</f>
+        <v>1381</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4">
+        <v>625</v>
+      </c>
+      <c r="C4">
+        <v>556</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1231</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5">
+        <v>1600</v>
+      </c>
+      <c r="C5">
+        <v>706</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2406</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6">
+        <v>1600</v>
+      </c>
+      <c r="C6">
+        <v>853</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2603</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>403</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1053</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8">
+        <v>1250</v>
+      </c>
+      <c r="C8">
+        <v>553</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1953</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9">
+        <v>2750</v>
+      </c>
+      <c r="C9">
+        <v>1006</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3956</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10">
+        <v>2500</v>
+      </c>
+      <c r="C10">
+        <v>703</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11">
+        <v>2500</v>
+      </c>
+      <c r="C11">
+        <v>1009</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12">
+        <v>1750</v>
+      </c>
+      <c r="C12">
+        <v>703</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13">
+        <v>1500</v>
+      </c>
+      <c r="C13">
+        <v>556</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14">
+        <v>4000</v>
+      </c>
+      <c r="C14">
+        <v>1009</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15">
+        <v>192</v>
+      </c>
+      <c r="C15">
+        <v>405</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D327DDA-F994-4BB2-9264-036F3DD0A151}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2">
+        <v>2125</v>
+      </c>
+      <c r="C2">
+        <v>1759</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>4134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3">
+        <v>425</v>
+      </c>
+      <c r="C3">
+        <v>1256</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E20" si="0">SUM(B3:D3)</f>
+        <v>1731</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4">
+        <v>425</v>
+      </c>
+      <c r="C4">
+        <v>1006</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1481</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5">
+        <v>1050</v>
+      </c>
+      <c r="C5">
+        <v>1006</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2156</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6">
+        <v>1050</v>
+      </c>
+      <c r="C6">
+        <v>1253</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2453</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>1033</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2783</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>523</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>873</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>523</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>873</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10">
+        <v>750</v>
+      </c>
+      <c r="C10">
+        <v>520</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11">
+        <v>750</v>
+      </c>
+      <c r="C11">
+        <v>1020</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12">
+        <v>3000</v>
+      </c>
+      <c r="C12">
+        <v>1806</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13">
+        <v>2725</v>
+      </c>
+      <c r="C13">
+        <v>1150</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14">
+        <v>600</v>
+      </c>
+      <c r="C14">
+        <v>503</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15">
+        <v>2725</v>
+      </c>
+      <c r="C15">
+        <v>2159</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="C16">
+        <v>1153</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17">
+        <v>1500</v>
+      </c>
+      <c r="C17">
+        <v>653</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18">
+        <v>1700</v>
+      </c>
+      <c r="C18">
+        <v>656</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19">
+        <v>4275</v>
+      </c>
+      <c r="C19">
+        <v>1809</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20">
+        <v>216</v>
+      </c>
+      <c r="C20">
+        <v>505</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA5DA4B-8810-42A2-BA9E-AF5242C75E3B}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" customWidth="1"/>
+    <col min="10" max="10" width="8.26953125" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E14" si="0">SUM(B2:D2)</f>
+        <v>349</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11">
+        <v>350</v>
+      </c>
+      <c r="C11">
+        <v>169</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14">
+        <v>175</v>
+      </c>
+      <c r="C14">
+        <v>93</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B1C82B-4237-48AA-8E71-BDCB588EFB2B}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2">
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>437</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">SUM(B3:D3)</f>
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>534</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01803F1-5B39-479C-B50E-2DFF9598C390}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2">
+        <v>275</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>621</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">SUM(B3:D3)</f>
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10">
+        <v>625</v>
+      </c>
+      <c r="C10">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>93</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12">
+        <v>125</v>
+      </c>
+      <c r="C12">
+        <v>93</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>103</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>93</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+      <c r="C21">
+        <v>96</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B44">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522A2FCA-1C78-4F5D-B8DF-7B82ACCAA7E6}">
+  <dimension ref="A1:I59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>240</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>542</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="0">SUM(B3:D3)</f>
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>215</v>
+      </c>
+      <c r="C6">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>650</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>135</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9">
+        <v>135</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>135</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>290</v>
+      </c>
+      <c r="C11">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>290</v>
+      </c>
+      <c r="C12">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>250</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>290</v>
+      </c>
+      <c r="C13">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <v>135</v>
+      </c>
+      <c r="C16">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18">
+        <v>290</v>
+      </c>
+      <c r="C18">
+        <v>345</v>
+      </c>
+      <c r="D18">
+        <v>250</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>345</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>345</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21">
+        <v>135</v>
+      </c>
+      <c r="C21">
+        <v>345</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <v>345</v>
+      </c>
+      <c r="D22">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>1600</v>
+      </c>
+      <c r="C23">
+        <v>339</v>
+      </c>
+      <c r="D23">
+        <v>250</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E36" si="1">SUM(B23:D23)</f>
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>220</v>
+      </c>
+      <c r="C24">
+        <v>296</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25">
+        <v>220</v>
+      </c>
+      <c r="C25">
+        <v>276</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26">
+        <v>550</v>
+      </c>
+      <c r="C26">
+        <v>296</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>335</v>
+      </c>
+      <c r="C27">
+        <v>143</v>
+      </c>
+      <c r="D27">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>2200</v>
+      </c>
+      <c r="C28">
+        <v>1269</v>
+      </c>
+      <c r="D28">
+        <v>250</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>450</v>
+      </c>
+      <c r="C29">
+        <v>866</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>450</v>
+      </c>
+      <c r="C30">
+        <v>666</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31">
+        <v>1135</v>
+      </c>
+      <c r="C31">
+        <v>866</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32">
+        <v>925</v>
+      </c>
+      <c r="C32">
+        <v>1029</v>
+      </c>
+      <c r="D32">
+        <v>250</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33">
+        <v>215</v>
+      </c>
+      <c r="C33">
+        <v>626</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34">
+        <v>215</v>
+      </c>
+      <c r="C34">
+        <v>426</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35">
+        <v>465</v>
+      </c>
+      <c r="C35">
+        <v>626</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36">
+        <v>600</v>
+      </c>
+      <c r="C36">
+        <v>823</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8312E7A-781C-4B55-BF99-7D4F477B8CFD}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>773</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">SUM(B3:D3)</f>
+        <v>228</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>93</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6">
+        <v>225</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>113</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>613</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9">
+        <v>270</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>537</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11">
+        <v>270</v>
+      </c>
+      <c r="C11">
+        <v>123</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12">
+        <v>190</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13">
+        <v>135</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14">
+        <v>165</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15">
+        <v>325</v>
+      </c>
+      <c r="C15">
+        <v>116</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B0AE2E-37F3-4AF0-AB3E-437EA0B3B42D}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2">
+        <v>225</v>
+      </c>
+      <c r="C2">
+        <v>326</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>801</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>173</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">SUM(B3:D3)</f>
+        <v>268</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>170</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>313</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>578</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7">
+        <v>550</v>
+      </c>
+      <c r="C7">
+        <v>376</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1176</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>145</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10">
+        <v>235</v>
+      </c>
+      <c r="C10">
+        <v>145</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11">
+        <v>470</v>
+      </c>
+      <c r="C11">
+        <v>233</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12">
+        <v>280</v>
+      </c>
+      <c r="C12">
+        <v>148</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13">
+        <v>520</v>
+      </c>
+      <c r="C13">
+        <v>230</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14">
+        <v>330</v>
+      </c>
+      <c r="C14">
+        <v>220</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15">
+        <v>565</v>
+      </c>
+      <c r="C15">
+        <v>233</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16">
+        <v>470</v>
+      </c>
+      <c r="C16">
+        <v>210</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B94AE-859B-424F-85E2-2F1FD40FEAA3}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2">
+        <v>900</v>
+      </c>
+      <c r="C2">
+        <v>569</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>1719</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3">
+        <v>190</v>
+      </c>
+      <c r="C3">
+        <v>291</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">SUM(B3:D3)</f>
+        <v>531</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4">
+        <v>190</v>
+      </c>
+      <c r="C4">
+        <v>191</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>431</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5">
+        <v>450</v>
+      </c>
+      <c r="C5">
+        <v>288</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>838</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6">
+        <v>450</v>
+      </c>
+      <c r="C6">
+        <v>481</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1081</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7">
+        <v>144</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8">
+        <v>165</v>
+      </c>
+      <c r="C8">
+        <v>178</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>493</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9">
+        <v>410</v>
+      </c>
+      <c r="C9">
+        <v>178</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>738</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10">
+        <v>820</v>
+      </c>
+      <c r="C10">
+        <v>359</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11">
+        <v>490</v>
+      </c>
+      <c r="C11">
+        <v>181</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12">
+        <v>900</v>
+      </c>
+      <c r="C12">
+        <v>356</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13">
+        <v>575</v>
+      </c>
+      <c r="C13">
+        <v>278</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14">
+        <v>985</v>
+      </c>
+      <c r="C14">
+        <v>459</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15">
+        <v>820</v>
+      </c>
+      <c r="C15">
+        <v>275</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F07E492-1E92-46F9-82CA-01E1AD7F1CF9}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.90625" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>196</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>1446</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>148</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">SUM(B3:D3)</f>
+        <v>398</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+      <c r="G4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>703</v>
+      </c>
+      <c r="G5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>145</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="G6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>203</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>193</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>145</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>196</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Blacksmiths SE.xlsx
+++ b/Blacksmiths SE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Git\Equipment-Ordering-Refinement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50C156C-1B77-4B46-B347-3E9CFCBE1538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFC908-9281-4D05-B0A0-BED0BDCB0C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23720" yWindow="3140" windowWidth="28800" windowHeight="15460" firstSheet="8" activeTab="11" xr2:uid="{4F28731C-F042-4FD6-A4E5-8D041135DC46}"/>
+    <workbookView xWindow="27050" yWindow="1940" windowWidth="21800" windowHeight="10820" firstSheet="1" activeTab="4" xr2:uid="{4F28731C-F042-4FD6-A4E5-8D041135DC46}"/>
   </bookViews>
   <sheets>
     <sheet name="Blacksmith Data Sheet" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="343">
   <si>
     <t>Name</t>
   </si>
@@ -395,9 +395,6 @@
     <t>Stalhrim Gauntlets</t>
   </si>
   <si>
-    <t>Stalhrim Helm</t>
-  </si>
-  <si>
     <t>Stalhrim Light Armor</t>
   </si>
   <si>
@@ -533,9 +530,6 @@
     <t>Orcish Shield</t>
   </si>
   <si>
-    <t>Dwarven Arrows (24)</t>
-  </si>
-  <si>
     <t>Dwarven Battleaxe</t>
   </si>
   <si>
@@ -1020,6 +1014,66 @@
   </si>
   <si>
     <t>Dragonbone Arrows (24)</t>
+  </si>
+  <si>
+    <t>Dwarven Arrow (24)</t>
+  </si>
+  <si>
+    <t>Stalhrim Helmet</t>
+  </si>
+  <si>
+    <t>Stalhrim Dagger</t>
+  </si>
+  <si>
+    <t>Stalhrim Battleaxe</t>
+  </si>
+  <si>
+    <t>Stalhrim Bow</t>
+  </si>
+  <si>
+    <t>Stalhrim Greatsword</t>
+  </si>
+  <si>
+    <t>Stalhrim Mace</t>
+  </si>
+  <si>
+    <t>Stalhrim Sword</t>
+  </si>
+  <si>
+    <t>Stalhrim War Axe</t>
+  </si>
+  <si>
+    <t>Stalhrim Warhammer</t>
+  </si>
+  <si>
+    <t>Stalhrim Arrow</t>
+  </si>
+  <si>
+    <t>Nordic Battleaxe</t>
+  </si>
+  <si>
+    <t>Nordic Bow</t>
+  </si>
+  <si>
+    <t>Nordic Dagger</t>
+  </si>
+  <si>
+    <t>Nordic Greatsword</t>
+  </si>
+  <si>
+    <t>Nordic Mace</t>
+  </si>
+  <si>
+    <t>Nordic Sword</t>
+  </si>
+  <si>
+    <t>Nordic War Axe</t>
+  </si>
+  <si>
+    <t>Nordic Warhammer</t>
+  </si>
+  <si>
+    <t>Nordic Arrow</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1741,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -1804,7 +1858,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -2027,7 +2081,7 @@
         <v>Adept</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
@@ -2066,7 +2120,7 @@
         <v>Novice</v>
       </c>
       <c r="J17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K17" t="s">
         <v>84</v>
@@ -2105,7 +2159,7 @@
         <v>Novice</v>
       </c>
       <c r="J18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K18" t="s">
         <v>84</v>
@@ -2144,7 +2198,7 @@
         <v>Apprentice</v>
       </c>
       <c r="J19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
@@ -2183,7 +2237,7 @@
         <v>Novice</v>
       </c>
       <c r="J20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -2323,7 +2377,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
@@ -2415,12 +2469,12 @@
     </row>
     <row r="35" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2462,26 +2516,26 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>1500</v>
@@ -2497,7 +2551,7 @@
         <v>2509</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -2505,7 +2559,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3">
         <v>275</v>
@@ -2521,7 +2575,7 @@
         <v>781</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -2529,7 +2583,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4">
         <v>275</v>
@@ -2545,7 +2599,7 @@
         <v>631</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -2553,7 +2607,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <v>750</v>
@@ -2569,7 +2623,7 @@
         <v>1306</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -2577,7 +2631,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>750</v>
@@ -2593,7 +2647,7 @@
         <v>1503</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -2601,7 +2655,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7">
         <v>290</v>
@@ -2617,7 +2671,7 @@
         <v>593</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -2625,7 +2679,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8">
         <v>720</v>
@@ -2641,7 +2695,7 @@
         <v>1173</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -2649,7 +2703,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9">
         <v>1440</v>
@@ -2665,7 +2719,7 @@
         <v>2399</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -2673,7 +2727,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10">
         <v>865</v>
@@ -2691,7 +2745,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B11">
         <v>1585</v>
@@ -2709,7 +2763,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -2727,7 +2781,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13">
         <v>1725</v>
@@ -2745,7 +2799,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B14">
         <v>1440</v>
@@ -2763,7 +2817,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B15">
         <v>168</v>
@@ -2781,15 +2835,15 @@
     </row>
     <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -2797,7 +2851,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2805,7 +2859,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -2813,7 +2867,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2821,7 +2875,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -2829,7 +2883,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -2837,7 +2891,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24">
         <v>75</v>
@@ -2845,7 +2899,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -2853,7 +2907,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26">
         <v>45</v>
@@ -2861,7 +2915,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B27">
         <v>150</v>
@@ -2869,7 +2923,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28">
         <v>250</v>
@@ -2877,7 +2931,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -2885,7 +2939,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -2893,7 +2947,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2901,7 +2955,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32">
         <v>500</v>
@@ -2909,7 +2963,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B33">
         <v>250</v>
@@ -2925,7 +2979,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B35">
         <v>60</v>
@@ -2933,7 +2987,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2941,7 +2995,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B37">
         <v>20</v>
@@ -2949,7 +3003,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B38">
         <v>125</v>
@@ -2990,26 +3044,26 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B2">
         <v>3200</v>
@@ -3025,7 +3079,7 @@
         <v>4459</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -3033,7 +3087,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <v>625</v>
@@ -3049,7 +3103,7 @@
         <v>1381</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -3057,7 +3111,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>625</v>
@@ -3073,7 +3127,7 @@
         <v>1231</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -3081,7 +3135,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>1600</v>
@@ -3097,7 +3151,7 @@
         <v>2406</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -3105,7 +3159,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B6">
         <v>1600</v>
@@ -3121,7 +3175,7 @@
         <v>2603</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -3129,7 +3183,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B7">
         <v>500</v>
@@ -3145,7 +3199,7 @@
         <v>1053</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -3153,7 +3207,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B8">
         <v>1250</v>
@@ -3169,7 +3223,7 @@
         <v>1953</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -3177,7 +3231,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B9">
         <v>2750</v>
@@ -3193,7 +3247,7 @@
         <v>3956</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -3201,7 +3255,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B10">
         <v>2500</v>
@@ -3219,7 +3273,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B11">
         <v>2500</v>
@@ -3237,7 +3291,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B12">
         <v>1750</v>
@@ -3255,7 +3309,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B13">
         <v>1500</v>
@@ -3273,7 +3327,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B14">
         <v>4000</v>
@@ -3291,7 +3345,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B15">
         <v>192</v>
@@ -3312,15 +3366,15 @@
     </row>
     <row r="19" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -3328,7 +3382,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -3336,7 +3390,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -3344,7 +3398,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3352,7 +3406,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24">
         <v>40</v>
@@ -3360,7 +3414,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B25">
         <v>30</v>
@@ -3368,7 +3422,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B26">
         <v>75</v>
@@ -3376,7 +3430,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -3384,7 +3438,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28">
         <v>45</v>
@@ -3392,7 +3446,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B29">
         <v>150</v>
@@ -3400,7 +3454,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B30">
         <v>250</v>
@@ -3408,7 +3462,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -3416,7 +3470,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -3424,7 +3478,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -3432,7 +3486,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B34">
         <v>500</v>
@@ -3440,7 +3494,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B35">
         <v>250</v>
@@ -3456,7 +3510,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B37">
         <v>60</v>
@@ -3464,7 +3518,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -3472,7 +3526,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -3480,7 +3534,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B40">
         <v>125</v>
@@ -3495,7 +3549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D327DDA-F994-4BB2-9264-036F3DD0A151}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45:B45"/>
     </sheetView>
   </sheetViews>
@@ -3520,26 +3574,26 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B2">
         <v>2125</v>
@@ -3555,7 +3609,7 @@
         <v>4134</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -3563,7 +3617,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3">
         <v>425</v>
@@ -3579,7 +3633,7 @@
         <v>1731</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -3587,7 +3641,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B4">
         <v>425</v>
@@ -3603,7 +3657,7 @@
         <v>1481</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -3611,7 +3665,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B5">
         <v>1050</v>
@@ -3627,7 +3681,7 @@
         <v>2156</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -3635,7 +3689,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B6">
         <v>1050</v>
@@ -3651,7 +3705,7 @@
         <v>2453</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -3659,7 +3713,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B7">
         <v>1500</v>
@@ -3675,7 +3729,7 @@
         <v>2783</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -3683,7 +3737,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B8">
         <v>300</v>
@@ -3699,7 +3753,7 @@
         <v>873</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -3707,7 +3761,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B9">
         <v>300</v>
@@ -3723,7 +3777,7 @@
         <v>873</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -3731,7 +3785,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B10">
         <v>750</v>
@@ -3749,7 +3803,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B11">
         <v>750</v>
@@ -3767,7 +3821,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B12">
         <v>3000</v>
@@ -3785,7 +3839,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B13">
         <v>2725</v>
@@ -3803,7 +3857,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B14">
         <v>600</v>
@@ -3821,7 +3875,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B15">
         <v>2725</v>
@@ -3839,7 +3893,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B16">
         <v>2000</v>
@@ -3857,7 +3911,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B17">
         <v>1500</v>
@@ -3875,7 +3929,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B18">
         <v>1700</v>
@@ -3893,7 +3947,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B19">
         <v>4275</v>
@@ -3911,7 +3965,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B20">
         <v>216</v>
@@ -3935,15 +3989,15 @@
     </row>
     <row r="24" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -3951,7 +4005,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -3959,7 +4013,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -3967,7 +4021,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -3975,7 +4029,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29">
         <v>40</v>
@@ -3983,7 +4037,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -3991,7 +4045,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B31">
         <v>75</v>
@@ -3999,7 +4053,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B32">
         <v>100</v>
@@ -4007,7 +4061,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B33">
         <v>45</v>
@@ -4015,7 +4069,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B34">
         <v>150</v>
@@ -4023,7 +4077,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B35">
         <v>250</v>
@@ -4031,7 +4085,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -4039,7 +4093,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -4047,7 +4101,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -4055,7 +4109,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B39">
         <v>500</v>
@@ -4063,7 +4117,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B40">
         <v>250</v>
@@ -4079,7 +4133,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B42">
         <v>60</v>
@@ -4087,7 +4141,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -4095,7 +4149,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B44">
         <v>20</v>
@@ -4103,7 +4157,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B45">
         <v>125</v>
@@ -4119,7 +4173,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B37"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4145,27 +4199,27 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -4181,7 +4235,7 @@
         <v>349</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -4189,7 +4243,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -4205,7 +4259,7 @@
         <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -4213,7 +4267,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -4229,7 +4283,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -4237,7 +4291,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -4253,7 +4307,7 @@
         <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -4261,7 +4315,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -4277,7 +4331,7 @@
         <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -4285,7 +4339,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7">
         <v>125</v>
@@ -4301,7 +4355,7 @@
         <v>424</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -4309,7 +4363,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -4325,7 +4379,7 @@
         <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -4333,7 +4387,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -4349,7 +4403,7 @@
         <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -4357,7 +4411,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -4375,7 +4429,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B11">
         <v>350</v>
@@ -4393,7 +4447,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B12">
         <v>70</v>
@@ -4411,7 +4465,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13">
         <v>70</v>
@@ -4429,7 +4483,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B14">
         <v>175</v>
@@ -4447,15 +4501,15 @@
     </row>
     <row r="16" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -4463,7 +4517,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -4471,7 +4525,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -4479,7 +4533,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -4487,7 +4541,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -4495,7 +4549,7 @@
     </row>
     <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B22">
         <v>30</v>
@@ -4503,7 +4557,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B23">
         <v>75</v>
@@ -4511,7 +4565,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -4519,7 +4573,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B25">
         <v>45</v>
@@ -4527,7 +4581,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B26">
         <v>150</v>
@@ -4535,7 +4589,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B27">
         <v>250</v>
@@ -4543,7 +4597,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -4551,7 +4605,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -4559,7 +4613,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -4567,7 +4621,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B31">
         <v>500</v>
@@ -4575,7 +4629,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B32">
         <v>250</v>
@@ -4591,7 +4645,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B34">
         <v>60</v>
@@ -4599,7 +4653,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -4607,7 +4661,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B36">
         <v>20</v>
@@ -4615,7 +4669,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B37">
         <v>125</v>
@@ -4632,7 +4686,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4657,26 +4711,26 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2">
         <v>125</v>
@@ -4692,7 +4746,7 @@
         <v>437</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -4700,7 +4754,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -4716,7 +4770,7 @@
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -4724,7 +4778,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -4740,7 +4794,7 @@
         <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -4748,7 +4802,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -4764,7 +4818,7 @@
         <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -4772,7 +4826,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -4788,7 +4842,7 @@
         <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -4796,7 +4850,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -4812,7 +4866,7 @@
         <v>534</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -4820,7 +4874,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -4836,7 +4890,7 @@
         <v>321</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -4844,10 +4898,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -4857,10 +4911,10 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -4868,7 +4922,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -4886,7 +4940,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B11">
         <v>25</v>
@@ -4904,7 +4958,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -4922,7 +4976,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -4940,7 +4994,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14">
         <v>55</v>
@@ -4958,7 +5012,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B15">
         <v>35</v>
@@ -4976,7 +5030,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B16">
         <v>60</v>
@@ -4994,15 +5048,15 @@
     </row>
     <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -5010,7 +5064,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -5018,7 +5072,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -5026,7 +5080,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -5034,7 +5088,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B23">
         <v>40</v>
@@ -5042,7 +5096,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24">
         <v>30</v>
@@ -5050,7 +5104,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B25">
         <v>75</v>
@@ -5058,7 +5112,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -5066,7 +5120,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27">
         <v>45</v>
@@ -5074,7 +5128,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28">
         <v>150</v>
@@ -5082,7 +5136,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B29">
         <v>250</v>
@@ -5090,7 +5144,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -5098,7 +5152,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -5106,7 +5160,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -5114,7 +5168,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B33">
         <v>500</v>
@@ -5122,7 +5176,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B34">
         <v>250</v>
@@ -5138,7 +5192,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B36">
         <v>60</v>
@@ -5146,7 +5200,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -5154,7 +5208,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -5162,7 +5216,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B39">
         <v>125</v>
@@ -5178,7 +5232,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5203,26 +5257,26 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>275</v>
@@ -5238,7 +5292,7 @@
         <v>621</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -5246,7 +5300,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>55</v>
@@ -5262,7 +5316,7 @@
         <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -5270,7 +5324,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -5286,7 +5340,7 @@
         <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -5294,7 +5348,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>125</v>
@@ -5310,7 +5364,7 @@
         <v>278</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -5318,7 +5372,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>125</v>
@@ -5334,7 +5388,7 @@
         <v>278</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -5342,7 +5396,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -5358,7 +5412,7 @@
         <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -5366,7 +5420,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>55</v>
@@ -5382,7 +5436,7 @@
         <v>158</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -5390,7 +5444,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>150</v>
@@ -5406,7 +5460,7 @@
         <v>370</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -5414,7 +5468,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B10">
         <v>625</v>
@@ -5432,7 +5486,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B11">
         <v>125</v>
@@ -5450,7 +5504,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B12">
         <v>125</v>
@@ -5468,7 +5522,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B13">
         <v>300</v>
@@ -5486,7 +5540,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -5504,7 +5558,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -5522,7 +5576,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B16">
         <v>45</v>
@@ -5540,7 +5594,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>90</v>
@@ -5558,7 +5612,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B18">
         <v>55</v>
@@ -5576,7 +5630,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -5594,7 +5648,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B20">
         <v>65</v>
@@ -5612,7 +5666,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B21">
         <v>110</v>
@@ -5630,15 +5684,15 @@
     </row>
     <row r="23" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -5646,7 +5700,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -5654,7 +5708,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -5662,7 +5716,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -5670,7 +5724,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B28">
         <v>40</v>
@@ -5678,7 +5732,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -5686,7 +5740,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B30">
         <v>75</v>
@@ -5694,7 +5748,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31">
         <v>100</v>
@@ -5702,7 +5756,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32">
         <v>45</v>
@@ -5710,7 +5764,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B33">
         <v>150</v>
@@ -5718,7 +5772,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B34">
         <v>250</v>
@@ -5726,7 +5780,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -5734,7 +5788,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -5742,7 +5796,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -5750,7 +5804,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B38">
         <v>500</v>
@@ -5758,7 +5812,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B39">
         <v>250</v>
@@ -5774,7 +5828,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B41">
         <v>60</v>
@@ -5782,7 +5836,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -5790,7 +5844,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B43">
         <v>20</v>
@@ -5798,7 +5852,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B44">
         <v>125</v>
@@ -5811,10 +5865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522A2FCA-1C78-4F5D-B8DF-7B82ACCAA7E6}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:B59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5839,20 +5893,20 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -5874,7 +5928,7 @@
         <v>542</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -5898,7 +5952,7 @@
         <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -5922,7 +5976,7 @@
         <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -5946,7 +6000,7 @@
         <v>257</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -5970,7 +6024,7 @@
         <v>402</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -5994,7 +6048,7 @@
         <v>990</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -6018,7 +6072,7 @@
         <v>255</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -6026,7 +6080,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B9">
         <v>135</v>
@@ -6042,7 +6096,7 @@
         <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -6194,7 +6248,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B18">
         <v>290</v>
@@ -6212,7 +6266,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B19">
         <v>60</v>
@@ -6230,7 +6284,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B20">
         <v>60</v>
@@ -6248,7 +6302,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B21">
         <v>135</v>
@@ -6266,7 +6320,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B22">
         <v>95</v>
@@ -6296,7 +6350,7 @@
         <v>250</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:E36" si="1">SUM(B23:D23)</f>
+        <f t="shared" ref="E23:E54" si="1">SUM(B23:D23)</f>
         <v>2189</v>
       </c>
     </row>
@@ -6374,339 +6428,663 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>334</v>
       </c>
       <c r="B28">
-        <v>2200</v>
+        <v>650</v>
       </c>
       <c r="C28">
-        <v>1269</v>
+        <v>166</v>
       </c>
       <c r="D28">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>3719</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="B29">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="C29">
-        <v>866</v>
+        <v>120</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>1366</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B30">
         <v>115</v>
       </c>
-      <c r="B30">
-        <v>450</v>
-      </c>
       <c r="C30">
-        <v>666</v>
+        <v>83</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>1166</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>337</v>
       </c>
       <c r="B31">
-        <v>1135</v>
+        <v>585</v>
       </c>
       <c r="C31">
-        <v>866</v>
+        <v>169</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>2101</v>
+        <v>954</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="B32">
-        <v>925</v>
+        <v>410</v>
       </c>
       <c r="C32">
-        <v>1029</v>
+        <v>83</v>
       </c>
       <c r="D32">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>2204</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="B33">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="C33">
-        <v>626</v>
+        <v>103</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>891</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>340</v>
       </c>
       <c r="B34">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="C34">
-        <v>426</v>
+        <v>106</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>691</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>341</v>
       </c>
       <c r="B35">
-        <v>465</v>
+        <v>700</v>
       </c>
       <c r="C35">
-        <v>626</v>
+        <v>169</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>1191</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>342</v>
       </c>
       <c r="B36">
-        <v>600</v>
+        <v>96</v>
       </c>
       <c r="C36">
-        <v>823</v>
+        <v>85</v>
       </c>
       <c r="D36">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>239</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37">
+        <v>2200</v>
+      </c>
+      <c r="C37">
+        <v>1269</v>
+      </c>
+      <c r="D37">
+        <v>250</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38">
+        <v>450</v>
+      </c>
+      <c r="C38">
+        <v>866</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1366</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>115</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>450</v>
+      </c>
+      <c r="C39">
+        <v>666</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>1166</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1135</v>
+      </c>
+      <c r="C40">
+        <v>866</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>2101</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>925</v>
+      </c>
+      <c r="C41">
+        <v>1029</v>
+      </c>
+      <c r="D41">
+        <v>250</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>2204</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>215</v>
+      </c>
+      <c r="C42">
+        <v>626</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>891</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>215</v>
+      </c>
+      <c r="C43">
+        <v>426</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>691</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="B44">
-        <v>30</v>
+        <v>465</v>
+      </c>
+      <c r="C44">
+        <v>626</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>1191</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="B45">
-        <v>75</v>
+        <v>600</v>
+      </c>
+      <c r="C45">
+        <v>823</v>
+      </c>
+      <c r="D45">
+        <v>150</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>1573</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>2150</v>
+      </c>
+      <c r="C46">
+        <v>1006</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>3356</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>1800</v>
+      </c>
+      <c r="C47">
+        <v>600</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>2600</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>325</v>
+      </c>
+      <c r="B48">
+        <v>395</v>
+      </c>
+      <c r="C48">
+        <v>203</v>
+      </c>
+      <c r="D48">
+        <v>150</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>328</v>
+      </c>
+      <c r="B49">
+        <v>1970</v>
+      </c>
+      <c r="C49">
+        <v>1009</v>
+      </c>
+      <c r="D49">
+        <v>200</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50">
+        <v>1375</v>
+      </c>
+      <c r="C50">
+        <v>603</v>
+      </c>
+      <c r="D50">
+        <v>150</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B51">
+        <v>985</v>
+      </c>
+      <c r="C51">
+        <v>403</v>
+      </c>
+      <c r="D51">
+        <v>150</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52">
+        <v>1180</v>
+      </c>
+      <c r="C52">
+        <v>406</v>
+      </c>
+      <c r="D52">
+        <v>150</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>332</v>
+      </c>
+      <c r="B53">
+        <v>2850</v>
+      </c>
+      <c r="C53">
+        <v>1009</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54">
+        <v>168</v>
+      </c>
+      <c r="C54">
+        <v>205</v>
+      </c>
+      <c r="D54">
+        <v>25</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>248</v>
       </c>
-      <c r="B48">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>249</v>
       </c>
-      <c r="B49">
+      <c r="B69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72">
         <v>250</v>
       </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>251</v>
-      </c>
-      <c r="B51">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>252</v>
-      </c>
-      <c r="B52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>253</v>
-      </c>
-      <c r="B53">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>254</v>
-      </c>
-      <c r="B54">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>259</v>
-      </c>
-      <c r="B58">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>273</v>
-      </c>
-      <c r="B59">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77">
         <v>125</v>
       </c>
     </row>
@@ -6720,7 +7098,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6745,26 +7123,26 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2">
         <v>400</v>
@@ -6780,7 +7158,7 @@
         <v>773</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -6788,7 +7166,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>85</v>
@@ -6804,7 +7182,7 @@
         <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -6812,7 +7190,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -6828,7 +7206,7 @@
         <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -6836,7 +7214,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -6852,7 +7230,7 @@
         <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -6860,7 +7238,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6">
         <v>225</v>
@@ -6876,7 +7254,7 @@
         <v>465</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -6884,7 +7262,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="B7">
         <v>96</v>
@@ -6900,7 +7278,7 @@
         <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -6908,7 +7286,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8">
         <v>300</v>
@@ -6924,7 +7302,7 @@
         <v>613</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -6932,7 +7310,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>270</v>
@@ -6948,7 +7326,7 @@
         <v>537</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -6956,7 +7334,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>55</v>
@@ -6974,7 +7352,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11">
         <v>270</v>
@@ -6992,7 +7370,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12">
         <v>190</v>
@@ -7010,7 +7388,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13">
         <v>135</v>
@@ -7028,7 +7406,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14">
         <v>165</v>
@@ -7046,7 +7424,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15">
         <v>325</v>
@@ -7064,15 +7442,15 @@
     </row>
     <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -7080,7 +7458,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -7088,7 +7466,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -7096,7 +7474,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7104,7 +7482,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -7112,7 +7490,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -7120,7 +7498,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24">
         <v>75</v>
@@ -7128,7 +7506,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -7136,7 +7514,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26">
         <v>45</v>
@@ -7144,7 +7522,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B27">
         <v>150</v>
@@ -7152,7 +7530,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28">
         <v>250</v>
@@ -7160,7 +7538,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -7168,7 +7546,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -7176,7 +7554,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -7184,7 +7562,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32">
         <v>500</v>
@@ -7192,7 +7570,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B33">
         <v>250</v>
@@ -7208,7 +7586,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B35">
         <v>60</v>
@@ -7216,7 +7594,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -7224,7 +7602,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B37">
         <v>20</v>
@@ -7232,7 +7610,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B38">
         <v>125</v>
@@ -7273,26 +7651,26 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>225</v>
@@ -7308,7 +7686,7 @@
         <v>801</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -7316,7 +7694,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>45</v>
@@ -7332,7 +7710,7 @@
         <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -7340,7 +7718,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>45</v>
@@ -7356,7 +7734,7 @@
         <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -7364,7 +7742,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>110</v>
@@ -7380,7 +7758,7 @@
         <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -7388,7 +7766,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>115</v>
@@ -7404,7 +7782,7 @@
         <v>578</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -7412,7 +7790,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>550</v>
@@ -7428,7 +7806,7 @@
         <v>1176</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -7436,7 +7814,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -7452,7 +7830,7 @@
         <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -7460,7 +7838,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9">
         <v>95</v>
@@ -7476,7 +7854,7 @@
         <v>390</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -7484,7 +7862,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10">
         <v>235</v>
@@ -7502,7 +7880,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B11">
         <v>470</v>
@@ -7520,7 +7898,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12">
         <v>280</v>
@@ -7538,7 +7916,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13">
         <v>520</v>
@@ -7556,7 +7934,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14">
         <v>330</v>
@@ -7574,7 +7952,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15">
         <v>565</v>
@@ -7592,7 +7970,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16">
         <v>470</v>
@@ -7610,15 +7988,15 @@
     </row>
     <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -7626,7 +8004,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -7634,7 +8012,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -7642,7 +8020,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -7650,7 +8028,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B23">
         <v>40</v>
@@ -7658,7 +8036,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24">
         <v>30</v>
@@ -7666,7 +8044,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B25">
         <v>75</v>
@@ -7674,7 +8052,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -7682,7 +8060,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27">
         <v>45</v>
@@ -7690,7 +8068,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28">
         <v>150</v>
@@ -7698,7 +8076,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B29">
         <v>250</v>
@@ -7706,7 +8084,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -7714,7 +8092,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -7722,7 +8100,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -7730,7 +8108,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B33">
         <v>500</v>
@@ -7738,7 +8116,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B34">
         <v>250</v>
@@ -7754,7 +8132,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B36">
         <v>60</v>
@@ -7762,7 +8140,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -7770,7 +8148,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -7778,7 +8156,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B39">
         <v>125</v>
@@ -7819,26 +8197,26 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>900</v>
@@ -7854,7 +8232,7 @@
         <v>1719</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -7862,7 +8240,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>190</v>
@@ -7878,7 +8256,7 @@
         <v>531</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -7886,7 +8264,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>190</v>
@@ -7902,7 +8280,7 @@
         <v>431</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -7910,7 +8288,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>450</v>
@@ -7926,7 +8304,7 @@
         <v>838</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -7934,7 +8312,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>450</v>
@@ -7950,7 +8328,7 @@
         <v>1081</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -7958,7 +8336,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B7">
         <v>144</v>
@@ -7974,7 +8352,7 @@
         <v>274</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -7982,7 +8360,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8">
         <v>165</v>
@@ -7998,7 +8376,7 @@
         <v>493</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -8006,7 +8384,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>410</v>
@@ -8022,7 +8400,7 @@
         <v>738</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -8030,7 +8408,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10">
         <v>820</v>
@@ -8048,7 +8426,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11">
         <v>490</v>
@@ -8066,7 +8444,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12">
         <v>900</v>
@@ -8084,7 +8462,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13">
         <v>575</v>
@@ -8102,7 +8480,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <v>985</v>
@@ -8120,7 +8498,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15">
         <v>820</v>
@@ -8138,15 +8516,15 @@
     </row>
     <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -8154,7 +8532,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -8162,7 +8540,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -8170,7 +8548,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -8178,7 +8556,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -8186,7 +8564,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -8194,7 +8572,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24">
         <v>75</v>
@@ -8202,7 +8580,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -8210,7 +8588,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26">
         <v>45</v>
@@ -8218,7 +8596,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B27">
         <v>150</v>
@@ -8226,7 +8604,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28">
         <v>250</v>
@@ -8234,7 +8612,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -8242,7 +8620,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -8250,7 +8628,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -8258,7 +8636,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32">
         <v>500</v>
@@ -8266,7 +8644,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B33">
         <v>250</v>
@@ -8282,7 +8660,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B35">
         <v>60</v>
@@ -8290,7 +8668,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -8298,7 +8676,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B37">
         <v>20</v>
@@ -8306,7 +8684,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B38">
         <v>125</v>
@@ -8347,26 +8725,26 @@
         <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -8382,7 +8760,7 @@
         <v>1446</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H2">
         <v>250</v>
@@ -8390,7 +8768,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -8406,7 +8784,7 @@
         <v>398</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -8414,7 +8792,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -8430,7 +8808,7 @@
         <v>353</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -8438,7 +8816,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -8454,7 +8832,7 @@
         <v>703</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -8462,7 +8840,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6">
         <v>500</v>
@@ -8478,7 +8856,7 @@
         <v>795</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -8486,7 +8864,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -8502,7 +8880,7 @@
         <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H7">
         <v>150</v>
@@ -8510,7 +8888,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -8526,7 +8904,7 @@
         <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -8534,7 +8912,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>75</v>
@@ -8550,7 +8928,7 @@
         <v>325</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9">
         <v>25</v>
@@ -8558,7 +8936,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>75</v>
@@ -8576,7 +8954,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>90</v>
@@ -8594,7 +8972,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>105</v>
@@ -8612,7 +8990,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>105</v>
@@ -8630,7 +9008,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>180</v>
@@ -8648,7 +9026,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>150</v>
@@ -8666,15 +9044,15 @@
     </row>
     <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -8682,7 +9060,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -8690,7 +9068,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -8698,7 +9076,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -8706,7 +9084,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -8714,7 +9092,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23">
         <v>30</v>
@@ -8722,7 +9100,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24">
         <v>75</v>
@@ -8730,7 +9108,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -8738,7 +9116,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26">
         <v>45</v>
@@ -8746,7 +9124,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B27">
         <v>150</v>
@@ -8754,7 +9132,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28">
         <v>250</v>
@@ -8762,7 +9140,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -8770,7 +9148,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -8778,7 +9156,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -8786,7 +9164,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32">
         <v>500</v>
@@ -8794,7 +9172,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B33">
         <v>250</v>
@@ -8810,7 +9188,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B35">
         <v>60</v>
@@ -8818,7 +9196,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -8826,7 +9204,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B37">
         <v>20</v>
@@ -8834,7 +9212,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B38">
         <v>125</v>
